--- a/bin/out.xlsx
+++ b/bin/out.xlsx
@@ -24,7 +24,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,#.#"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -362,7 +362,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>1.002150854613612</v>
       </c>
     </row>

--- a/bin/out.xlsx
+++ b/bin/out.xlsx
@@ -14,9 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Hello</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Красовского</t>
+  </si>
+  <si>
+    <t>JGD2000</t>
+  </si>
+  <si>
+    <t>GSK2011</t>
+  </si>
+  <si>
+    <t>PZ90</t>
+  </si>
+  <si>
+    <t>WGS84</t>
+  </si>
+  <si>
+    <t>a0</t>
   </si>
 </sst>
 </file>
@@ -24,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -352,18 +367,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>1.002150854613612</v>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6367557.18908914</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6367447.836846207</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6367447.30899615</v>
+      </c>
+      <c r="E2" s="1">
+        <v>6367446.860835009</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6367447.581841651</v>
       </c>
     </row>
   </sheetData>

--- a/bin/out.xlsx
+++ b/bin/out.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Сферические углы</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>-epsilon/3</t>
+  </si>
+  <si>
+    <t>Плоские углы</t>
   </si>
 </sst>
 </file>
@@ -390,13 +396,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:24">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -418,8 +424,26 @@
       <c r="L1" t="s">
         <v>6</v>
       </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -433,7 +457,7 @@
         <v>45.25700000000256</v>
       </c>
       <c r="E2" s="1">
-        <v>0.5037630154678523</v>
+        <v>-0.02311930079565657</v>
       </c>
       <c r="F2">
         <v>62</v>
@@ -442,22 +466,55 @@
         <v>12</v>
       </c>
       <c r="H2" s="1">
-        <v>45.76076301547042</v>
+        <v>45.23388069920691</v>
       </c>
       <c r="I2" s="2">
-        <v>0.8846844233917326</v>
+        <v>0.884683232553279</v>
       </c>
       <c r="J2" s="1">
-        <v>51728.1711933683</v>
+        <v>51728.21111185571</v>
       </c>
       <c r="K2" s="1">
-        <v>0.5671470433088904</v>
+        <v>0.5671483563073433</v>
       </c>
       <c r="L2" s="1">
-        <v>51727.60404632499</v>
+        <v>51727.6439634994</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2">
+        <v>62</v>
+      </c>
+      <c r="P2">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>45.25700000000256</v>
+      </c>
+      <c r="R2" s="1">
+        <v>-1.813547365869453</v>
+      </c>
+      <c r="S2" s="1">
+        <v>-0.02311930079565657</v>
+      </c>
+      <c r="T2">
+        <v>62</v>
+      </c>
+      <c r="U2">
+        <v>12</v>
+      </c>
+      <c r="V2" s="1">
+        <v>43.42033333333745</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.8846791336015296</v>
+      </c>
+      <c r="X2" s="1">
+        <v>51728.77797907755</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -471,7 +528,7 @@
         <v>20.55200000001207</v>
       </c>
       <c r="E3" s="1">
-        <v>0.5037630154678523</v>
+        <v>-0.02311930079565657</v>
       </c>
       <c r="F3">
         <v>50</v>
@@ -480,10 +537,10 @@
         <v>20</v>
       </c>
       <c r="H3" s="1">
-        <v>21.05576301547993</v>
+        <v>20.52888069921642</v>
       </c>
       <c r="I3" s="2">
-        <v>0.7698362013540055</v>
+        <v>0.7698345710289468</v>
       </c>
       <c r="J3" s="1">
         <v>45012.90828860826</v>
@@ -494,8 +551,41 @@
       <c r="L3" s="1">
         <v>45013.282</v>
       </c>
+      <c r="N3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3">
+        <v>50</v>
+      </c>
+      <c r="P3">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>20.55200000001207</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-1.813547365869453</v>
+      </c>
+      <c r="S3" s="1">
+        <v>-0.02311930079565657</v>
+      </c>
+      <c r="T3">
+        <v>50</v>
+      </c>
+      <c r="U3">
+        <v>20</v>
+      </c>
+      <c r="V3" s="1">
+        <v>18.71533333334696</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0.7698289593546562</v>
+      </c>
+      <c r="X3" s="1">
+        <v>45013.282</v>
+      </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -509,52 +599,103 @@
         <v>59.7009999999807</v>
       </c>
       <c r="E4" s="1">
-        <v>0.5037630154678523</v>
+        <v>-0.02311930079565657</v>
       </c>
       <c r="F4">
         <v>67</v>
       </c>
       <c r="G4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1">
-        <v>0.2047630154485514</v>
+        <v>59.67788069918502</v>
       </c>
       <c r="I4" s="2">
-        <v>0.9235456071689909</v>
+        <v>0.9235446275836194</v>
       </c>
       <c r="J4" s="1">
-        <v>54000.41416957005</v>
+        <v>54000.4712522779</v>
       </c>
       <c r="K4" s="1">
-        <v>0.6452166574176917</v>
+        <v>0.6452187035549366</v>
       </c>
       <c r="L4" s="1">
-        <v>34841.96672966095</v>
+        <v>53999.82603357435</v>
+      </c>
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4">
+        <v>67</v>
+      </c>
+      <c r="P4">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>59.7009999999807</v>
+      </c>
+      <c r="R4" s="1">
+        <v>-1.813547365869453</v>
+      </c>
+      <c r="S4" s="1">
+        <v>-0.02311930079565657</v>
+      </c>
+      <c r="T4">
+        <v>67</v>
+      </c>
+      <c r="U4">
+        <v>26</v>
+      </c>
+      <c r="V4" s="1">
+        <v>57.86433333331559</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.9235412557704312</v>
+      </c>
+      <c r="X4" s="1">
+        <v>54001.11606541515</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5">
         <v>180.0015305555555</v>
       </c>
+      <c r="N5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>180.0015305555555</v>
+      </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1.511289471557878</v>
+        <v>5.44064209760836</v>
+      </c>
+      <c r="N6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6">
+        <v>5.44064209760836</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02405291221757629</v>
+        <v>0.06935790238696971</v>
+      </c>
+      <c r="N7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7">
+        <v>0.06935790238696971</v>
       </c>
     </row>
   </sheetData>
